--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/UpdatedVIN_CA_CHOICE.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/UpdatedVIN_CA_CHOICE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="64">
   <si>
     <t>VIN</t>
   </si>
@@ -207,6 +207,15 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>invalidVIN</t>
+  </si>
+  <si>
+    <t>SecondValid</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -553,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,6 +574,7 @@
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="10" max="10" width="18.109375" customWidth="1"/>
@@ -828,10 +838,10 @@
         <v>28</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>28</v>
@@ -902,27 +912,251 @@
         <v>30</v>
       </c>
       <c r="AE3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI3">
+        <v>20010101</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2005</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="4">
+        <v>20000</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="4">
+        <v>4</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="4">
+        <v>2</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" s="4">
+        <v>2</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AI3">
+      <c r="AI4">
+        <v>20130101</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2005</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4">
+        <v>20000</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="4">
+        <v>4</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="4">
+        <v>2</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="4">
+        <v>2</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI5">
         <v>20150101</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ5" t="s">
         <v>56</v>
       </c>
-      <c r="AK3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="AK5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL5" t="s">
         <v>30</v>
       </c>
     </row>
